--- a/templates/cpr1000/generic_check_list.xlsx
+++ b/templates/cpr1000/generic_check_list.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\doc-server\templates\cpr1000\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="12045"/>
   </bookViews>
@@ -309,10 +314,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${project}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${t}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -334,13 +335,17 @@
   </si>
   <si>
     <t>${date}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${unit}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="32">
     <font>
       <sz val="12"/>
@@ -1250,6 +1255,48 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,48 +1340,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1430,6 +1435,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1476,7 +1489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,9 +1521,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,6 +1556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1717,11 +1732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K8"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1741,91 +1756,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="28"/>
+      <c r="B3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="42"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1835,17 +1850,17 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1854,100 +1869,100 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="38" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7">
@@ -1956,295 +1971,295 @@
       <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="32">
+      <c r="A12" s="26"/>
+      <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="36" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="32">
+      <c r="A14" s="26"/>
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="36" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="32">
+      <c r="A16" s="27"/>
+      <c r="B16" s="17">
         <v>5</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="36" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="32">
+      <c r="A18" s="27"/>
+      <c r="B18" s="17">
         <v>6</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="32">
+      <c r="A20" s="27"/>
+      <c r="B20" s="17">
         <v>7</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="36" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="7">
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="7">
         <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="32">
+      <c r="A24" s="27"/>
+      <c r="B24" s="17">
         <v>10</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="9">
@@ -2253,37 +2268,37 @@
       <c r="C26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="9">
         <v>12</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
@@ -2499,48 +2514,31 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J6:J8"/>
     <mergeCell ref="A11:A25"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:I11"/>
@@ -2557,31 +2555,48 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.1594202898550725" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
